--- a/data/financial_statements/sofp/IVZ.xlsx
+++ b/data/financial_statements/sofp/IVZ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,2551 +608,2590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1434100000</v>
+      </c>
+      <c r="C2">
         <v>1226000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1132800000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1614100000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2147100000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2309500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1737100000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1587900000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1710100000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1320600000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1271200000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1229500000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1701200000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1534300000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1435300000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1268300000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1805400000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1914300000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1833900000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2122300000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2517700000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2202200000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1974200000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1932700000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2070200000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1896300000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1704100000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1622300000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2214700000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2178200000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1780500000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1613600000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1918200000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1591200000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1488400000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1758700000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1914800000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1619500000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1276800000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1649000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>879800000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1035300000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1159900000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1317600000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1231400000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1511900000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1377100000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1026000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1181500000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1073900000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1274000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1191200000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1191300000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1160500000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1215100000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>906100000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1465800000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1683700000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1590100000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1547800000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1448000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1655300000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1613300000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1323300000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1263300000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1901300000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1610800000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1267900000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1644600000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1756300000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2004700000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1439600000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1649800000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1868300000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2225000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1491500000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1540900000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1656700000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1520400000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>668700000</v>
+      </c>
+      <c r="C4">
         <v>754300000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1067700000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1662100000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1893600000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2232200000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3415200000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5629500000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7582100000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7882500000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8020900000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9137300000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10835600000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>10442400000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>11472600000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>12102700000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>11384800000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>12268200000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>12199600000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>12902200000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>12102600000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>10716700000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>9230500000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8224200000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>7387500000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>6620400000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>6578300000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>6370600000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5826000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3780100000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2886900000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2003700000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1843700000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1866700000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1617800000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1524500000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1650000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1431100000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1284000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>11834500000</v>
+      </c>
+      <c r="C5">
         <v>12263900000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>12840400000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>14447500000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15327100000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15748500000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>16073800000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>17496700000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>19204200000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>18872800000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>18602200000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>20073700000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>22509500000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>21193900000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>20867500000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>21431000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>21050400000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>22497600000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>21731800000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>22906600000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>22292400000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>21690800000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>20024100000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>18474300000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>17646000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>15959100000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>15282500000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>14497700000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>17009600000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>16833800000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>14595200000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>13781300000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>12141800000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>11630700000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>11222100000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>11745400000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>10606600000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>10152300000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>5018700000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>4903500000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>504000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>491400000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>499600000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>518100000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>512500000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>524800000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>555900000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>563800000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>551100000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>555100000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>562800000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>583500000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>552300000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>567800000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>462800000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>468700000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>469200000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>475700000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>484400000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>490700000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>483000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>482200000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>467900000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>464700000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>444600000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>432100000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>428900000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>426900000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>415900000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>410300000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>393100000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>402600000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>367300000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>354800000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>342400000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>350800000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>336400000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>328800000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>337200000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
         <v>10415000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>839900000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>640900000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>732800000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>674600000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4687500000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>5022900000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN8">
         <v>14700000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>22800000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>15698900000</v>
+      </c>
+      <c r="C9">
         <v>15551800000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>15820600000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>16053600000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>16110500000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>16124800000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>16229000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>16214900000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>16221900000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>16044700000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>15931400000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>15869200000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>15867700000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>15670000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>15766600000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>9379100000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>9333200000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>9468000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>9466000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>8163600000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>8149400000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>8134600000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>7666500000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>7568700000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>7528600000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>7650500000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>7719400000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>7653600000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>7529700000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>7626900000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>7809600000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>7696100000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>7826100000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>7972300000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>8178400000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>8071100000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>8131000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>8167200000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>8010200000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>8170200000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>2223400000</v>
+      </c>
+      <c r="C10">
         <v>952200000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1034300000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>853100000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>729900000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>428100000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>420800000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>614000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>514200000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>568900000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>490400000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>505000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>459600000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>475200000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>459600000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>292800000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>126100000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>69000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>52800000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>64500000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>61700000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>64100000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>75700000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>88000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>95000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>83500000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>68800000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>78000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>107000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>85600000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>83200000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>90700000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>79500000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>110700000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>144200000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>187400000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>182100000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>107600000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>28900000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>27800000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>17922300000</v>
+      </c>
+      <c r="C11">
         <v>17008000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>17346300000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17406300000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>17358500000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>17065400000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>17174600000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>17384800000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>17299900000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>17164700000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>16976900000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>16937000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>16910800000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>16697500000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>17633900000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>10775600000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>9928000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>10006200000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>10727300000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>8712500000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>9376400000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>8681699000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>8224400000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>8124600000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>8088300000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>8178600000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>8220301000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>8160500000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>8063600000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>8128400000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>8303101000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>8179900000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>8308199000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>8450300000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>8677400000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>8600900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>8663899000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>8611200000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>13119900000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>13631000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>29756800000</v>
+      </c>
+      <c r="C12">
         <v>29271900000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>30186700000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>31853800000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>32685600000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>32813900000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>33248400000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>34881500000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>36504100000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>36037500000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>35579100000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>37010700000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>39420300000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>37891400000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>38501400000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>32206600000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>30978400000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>32503800000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>32459100000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>31619100000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>31668800000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>30372500000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>28248500000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>26598900000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>25734300000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>24137700000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>23502800000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>22658200000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>25073200000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>24962200000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>22898300000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>21961200000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>20450000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>20081000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>19899500000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>20346300000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>19270500000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>18763500000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>18138600000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>18534500000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>668700000</v>
+      </c>
+      <c r="C13">
         <v>2086700000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2420600000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2933400000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3050700000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3871100000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5187100000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7907500000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9600900000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9997600000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>10017900000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>11266800000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>12893800000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>12619000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>13704000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>13799300000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>12650700000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>13953900000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>13953600000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>14534500000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>14124000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>13815300000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>12507100000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>10919800000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>9695899000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>8918399000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>8741600000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>8267101000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>7476500000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>7345400000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>5445900000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>4760400000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3185300000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>3270400000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3515100000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>3584400000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>3061100000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>3103100000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>2289500000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>2147000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>680400000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>558000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>495400000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1062300000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>903200000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>742400000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>592200000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>973700000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>714900000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>575500000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>481100000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1030700000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>851000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>726700000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>340200000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>646500000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>552700000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>446100000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>371600000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>696100000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>608500000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>475100000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>390500000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>654300000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>505700000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>412100000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>331000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>661300000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>571200000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>474800000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>371700000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>667300000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>540100000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>463200000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>391300000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>676400000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>565500000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15">
         <v>78000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7224500000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6750700000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>81000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>23000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>46000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>59000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>78000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>206000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN16">
         <v>34600000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>68100000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
         <v>443000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>763100000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>846300000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>864900000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1118600000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>621800000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>251000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>899600000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1072500000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>668700000</v>
+      </c>
+      <c r="C18">
         <v>2767100000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2978600000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3428800000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4113000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4774300000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5929500000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8499700000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10574600000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>10712500000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10593400000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>11747900000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>13924500000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>13470000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>14430700000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>14139500000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>13297200000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>14506600000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>14399700000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>14906100000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>14820100000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>14423800000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>12982200000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>11310300000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>10350200000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>9424100000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>9153700000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>8598101000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>8137800000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>7916600000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>5920700000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>5132100000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>3852600000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>3810500000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3978300000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>4597500000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>3737500000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>3919600000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>3429700000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>3287600000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>8078000000</v>
+      </c>
+      <c r="C19">
         <v>8035800000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>8402300000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>9170100000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>9421200000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9309000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>8834500000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8784100000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8796700000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>8698700000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>8654600000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>8761500000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>8314900000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>7780900000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>7270100000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>7727400000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7634800000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>7635100000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>7970400000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6579100000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6875600000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>6398900000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>6004300000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>6366500000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>6505500000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>5933200000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>5602300000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>5134400000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>7509800000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>7359000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>7029600000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>7080300000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>6726400000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>6299400000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>5890400000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>6351400000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>5770300000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>5390700000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>5283900000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>5735900000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
         <v>6000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>1678800000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1675200000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1704500000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1626300000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1591100000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1575300000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1566300000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1523500000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1527100000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1507400000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1500800000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1529500000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1523100000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1538800000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>367600000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>326400000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>304300000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>303500000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>313400000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>275500000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>351500000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>366500000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>390300000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>309700000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>341000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>390100000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>374400000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>288900000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>316300000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>367000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>387700000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>304800000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>325300000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>351900000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>390000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>323600000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>333800000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>360300000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>346800000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>990400000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>892800000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>801100000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>510800000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>542600000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>363900000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>338300000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>211800000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>228200000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>202800000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>176500000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>383500000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>398000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>396400000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>451100000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>396200000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>423200000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>297000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>281000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>243200000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>309600000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>328300000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>207700000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>283700000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>347000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>312600000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>407300000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>167300000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>176400000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>169100000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>167600000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>165500000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>157500000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>155000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>101900000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>4167900000</v>
+      </c>
+      <c r="C23">
         <v>286700000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>443000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>763100000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>846300000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>864900000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1118600000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>663600000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>588600000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>520400000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>653200000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>881600000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>949600000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>757800000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>565700000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>511600000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>387600000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>315800000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>352300000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>349500000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>498800000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>339900000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>393200000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>490900000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>673400000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>268100000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>314000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>181500000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>273700000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>338100000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>326800000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>320700000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>280900000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>349200000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>201000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>461800000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>310700000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>325000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>12245900000</v>
+      </c>
+      <c r="C24">
         <v>10991700000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>11413300000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>12438800000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>12404600000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>12307600000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>11892300000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11352300000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>11120600000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>10974400000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>11018000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>11320400000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>11177500000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>10459800000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>9771001000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>9057699000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>8744999000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8678399000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>8923200000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>7523000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>7893100000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>7399900000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>7092300000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>7455400000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>7772300000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>6889300000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>6619000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>6097600000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>8239699000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>8189800000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>7892500000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>7956300000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>7477600000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>7131400000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>6598300000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>6843300000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>6555700000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>5724500000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>5954900000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>6407700000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>12914600000</v>
+      </c>
+      <c r="C25">
         <v>13758800000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>14391900000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>15867600000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>16517600000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>17081900000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>17821800000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>19852000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>21695200000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>21686900000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>21611400000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>23068300000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>25102000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>23929800000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>24201700000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>23197200000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>22042200000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>23185000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>23322900000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>22429100000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>22713200000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>21823700000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>20074500000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>18765700000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>18122500000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>16313400000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>15772700000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>14695700000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>16377500000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>16106400000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>13813200000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>13088400000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>11330200000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>10941900000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>10576600000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>11440800000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>10293200000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>9644100000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>9384600000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>9695300000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>7547000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>7563200000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>7547000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7688000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7660100000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7664300000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7639600000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>7811400000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>7788600000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>7788400000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>7747700000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>7860800000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>7822800000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>7810800000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>6273700000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>6334800000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>6293000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>6255600000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>6217400000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>6282000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>6248100000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>6206200000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>6167600000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>6227400000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>6206500000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>6149400000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>6139900000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>6197700000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>6166200000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>6131000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>6091200000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>6133600000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>6103900000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>6068800000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>6044300000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>6100800000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>6080100000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>6046200000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>6024300000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>4010500000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>4010500000</v>
@@ -3079,13 +3232,13 @@
       <c r="O27">
         <v>4010500000</v>
       </c>
+      <c r="P27">
+        <v>4010500000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>113200000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>113200000</v>
@@ -3127,7 +3280,7 @@
         <v>113200000</v>
       </c>
       <c r="P28">
-        <v>98100000</v>
+        <v>113200000</v>
       </c>
       <c r="Q28">
         <v>98100000</v>
@@ -3201,756 +3354,765 @@
       <c r="AN28">
         <v>98100000</v>
       </c>
+      <c r="AO28">
+        <v>98100000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>7416200000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>7323200000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>7287900000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>7169200000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6821200000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6570100000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6279900000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6085000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5944500000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>5825000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>5856600000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>5917800000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>5880000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>5856800000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>5942100000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>5884500000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>5892600000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>5747300000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>5626600000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>5489100000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>5199800000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>5051300000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>4930600000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>4833400000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>4721000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>4595500000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>4487600000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4439600000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>4351400000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>4218300000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>4077500000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>3943600000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>3820900000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>3680400000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>3525700000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>3466200000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>3281300000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>3145700000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>3054000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK30">
         <v>625800000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>588600000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>3052200000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3095300000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3105100000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3043600000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3047600000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>3080300000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3087700000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3253800000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>3274900000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>3319100000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>3323200000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>3452500000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3449000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>3185200000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2971000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>3003600000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2710800000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2720000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>2715400000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>2781900000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>2783500000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>2788900000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>2789300000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2845800000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>2715200000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>2673200000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>2472900000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2404100000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>2194700000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>2024300000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1936200000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1898100000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1851700000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1807500000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1768300000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1700400000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1363500000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1369400000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1314700000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>1628600000</v>
+      </c>
+      <c r="C32">
         <v>11502600000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>11784300000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>11975700000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>12157500000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>11721500000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>11416100000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>11019000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>10798400000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>10340100000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>9957200000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>9931899000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>10307800000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>9951101000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>10289200000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>9009400000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>8936201000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>9318801000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>9136200000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>9189999000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>8955601000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>8548800000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>8173999000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>7833201000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>7611801000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>7824299000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>7730100000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7962499000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>8695701000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>8855800000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>9085101000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>8872801000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>9119801000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>9139101000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>9322900000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>8905500000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>8977300000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>9119399000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>8754000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>8839200000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>16842200000</v>
+      </c>
+      <c r="C33">
         <v>15513100000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>15794800000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>15986200000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>16168000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>15732000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>15426600000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>15029500000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>14808900000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>14350600000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>13967700000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>13942400000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>14318300000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>13961600000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>14299700000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>9009400000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>8936200000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>9318800000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>9136200000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>9190000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>8955600000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>8548800000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>8174000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>7833200000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>7611800000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>7824300000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>7730100000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>7962500000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>8695700000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>8855800000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>9085100000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>8872800000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>9119800000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>9139100000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>9322900000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>8905500000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>8977300000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>9119400000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>8754000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>8839200000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>29756800000</v>
+      </c>
+      <c r="C34">
         <v>29271900000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>30186700000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>31853800000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>32685600000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>32813900000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>33248400000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>34881500000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>36504100000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>36037500000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>35579100000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>37010700000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>39420300000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>37891400000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>38501400000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>32206600000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>30978400000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>32503800000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>32459100000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>31619100000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>31668800000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>30372500000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>28248500000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>26598900000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>25734300000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>24137700000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>23502800000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>22658200000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>25073200000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>24962200000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>22898300000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>21961200000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>20450000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>20081000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>19899500000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>20346300000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>19270500000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>18763500000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>18138600000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>18534500000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>454800000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>454900000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>455000000</v>
-      </c>
-      <c r="E35">
-        <v>461200000</v>
       </c>
       <c r="F35">
         <v>461200000</v>
       </c>
       <c r="G35">
+        <v>461200000</v>
+      </c>
+      <c r="H35">
         <v>461400000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>461500000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>459100000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>459300000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>459200000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>458900000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>453300000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>453900000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>469800000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>400800000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>397100000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>411300000</v>
-      </c>
-      <c r="S35">
-        <v>410800000</v>
       </c>
       <c r="T35">
         <v>410800000</v>
       </c>
       <c r="U35">
-        <v>407100000</v>
+        <v>410800000</v>
       </c>
       <c r="V35">
         <v>407100000</v>
       </c>
       <c r="W35">
+        <v>407100000</v>
+      </c>
+      <c r="X35">
         <v>406900000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>406800000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>403800000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>408500000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>409900000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>417300000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>417500000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>423900000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>428700000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>430700000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>429900000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>430800000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>431700000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>432700000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>433100000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>443200000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>442800000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>444600000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>4000000</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C36">
         <v>4000000</v>
@@ -3991,370 +4153,382 @@
       <c r="O36">
         <v>4000000</v>
       </c>
+      <c r="P36">
+        <v>4000000</v>
+      </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>1143301000</v>
+      </c>
+      <c r="C37">
         <v>-38699200</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-25800800</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-67399400</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>57500000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-392802700</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-802402300</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-1185400000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-1412998000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-1694101000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>-1963699000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-1926801000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>-1549399000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>-1708402000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>-1466900000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-369699200</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-396999000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>-149199200</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>-329800800</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1026400000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>806201200</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>414201200</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>507500000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>264501000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>83200700</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>173798800</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>10700200</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>308899400</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>1165999000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>1228898000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>1275500000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>1176699000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>1293700000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>1166800000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>1144500000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>834400900</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>846299800</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>952200200</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>743800300</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>669000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>6643900000</v>
+      </c>
+      <c r="C38">
         <v>6809800000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>7269500000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>7556000000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>7352100000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>14224000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>13848100000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>7196200000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>7167600000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>7401100000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>7429400000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>7591000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>6691700000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>6246600000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>5834800000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>6459100000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>5829400000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>5720800000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>6136500000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>4456800000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>4357900000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>4196700000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>4030100000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>4433800000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>4435300000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>4036900000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>3898200000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>3512100000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>5295100000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>5180800000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>5249100000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>5466700000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>4808200000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>4708200000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>4402000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>4592700000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>3855500000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>3771200000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>4213100000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>4086900000</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>8078000000</v>
+      </c>
+      <c r="C39">
         <v>8035800000</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>8402300000</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>9170100000</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>9499200000</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>16533500000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>15585200000</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>8784100000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>8877700000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>8721700000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>8700600000</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>8820500000</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>8392900000</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>7780900000</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>7270100000</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>7727400000</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>7634800000</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>7635100000</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>7970400000</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>6579100000</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>6875600000</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>6398900000</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>6004300000</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>6366500000</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>6505500000</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>5933200000</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>5602300000</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>5134400000</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>7509800000</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>7359000000</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>7029600000</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>7080300000</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>6726400000</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>6299400000</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>5890400000</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>6351400000</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>5770300000</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>5390700000</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>5489900000</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>5735900000</v>
       </c>
     </row>
